--- a/target/test-classes/miCollabTestData.xlsx
+++ b/target/test-classes/miCollabTestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mehmet/IdeaProjects/miCollabWeb/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{626920DF-BF06-0B45-9280-43CE45E34AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F6DED-5022-4E1E-A817-C11DEFC91564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5400" windowWidth="28040" windowHeight="17440" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
+    <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -400,13 +400,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="5.375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="12.125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -440,7 +440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -474,7 +474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -491,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -508,7 +508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -525,7 +525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -542,7 +542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -593,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -610,7 +610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -627,7 +627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -644,7 +644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -661,7 +661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -678,7 +678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -695,7 +695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -729,7 +729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -746,7 +746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -763,7 +763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -780,7 +780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -797,7 +797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -814,7 +814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -831,7 +831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -848,7 +848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -865,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -882,7 +882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -899,7 +899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -916,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -933,7 +933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1018,7 +1018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1052,7 +1052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1137,7 +1137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1154,7 +1154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1239,7 +1239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>5</v>
       </c>
@@ -1273,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>5</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>5</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -1375,7 +1375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>5</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>5</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>5</v>
       </c>
@@ -1545,7 +1545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>5</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>5</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>5</v>
       </c>
@@ -1596,7 +1596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>5</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>5</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>5</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>5</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>5</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>5</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>5</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>5</v>
       </c>
@@ -1783,7 +1783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>5</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>5</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>5</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>5</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>5</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>5</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>5</v>
       </c>
@@ -1919,7 +1919,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>5</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>5</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>5</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>5</v>
       </c>
@@ -1987,7 +1987,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>5</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>5</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>5</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>5</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>5</v>
       </c>
@@ -2089,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>5</v>
       </c>
@@ -2123,7 +2123,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>5</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>5</v>
       </c>
@@ -2157,7 +2157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>5</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>5</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>5</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>5</v>
       </c>
@@ -2242,7 +2242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>5</v>
       </c>
@@ -2259,7 +2259,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>5</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>5</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>5</v>
       </c>
@@ -2310,7 +2310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>5</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>5</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>5</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>5</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>5</v>
       </c>
@@ -2395,7 +2395,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>5</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>5</v>
       </c>
@@ -2429,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>5</v>
       </c>
@@ -2446,7 +2446,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>5</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>5</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>5</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>5</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>5</v>
       </c>
@@ -2531,7 +2531,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>5</v>
       </c>
@@ -2548,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>5</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>5</v>
       </c>
@@ -2582,7 +2582,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>5</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>5</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>5</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>5</v>
       </c>
@@ -2650,7 +2650,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>5</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>5</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2718,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>5</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>5</v>
       </c>
@@ -2752,7 +2752,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>5</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>5</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>5</v>
       </c>
@@ -2803,7 +2803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>5</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>5</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>5</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>5</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>5</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>5</v>
       </c>
@@ -2922,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>5</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>5</v>
       </c>
@@ -2956,7 +2956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>5</v>
       </c>
@@ -2990,7 +2990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>5</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -3024,7 +3024,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>5</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>5</v>
       </c>
@@ -3058,7 +3058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>5</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>5</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>5</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>5</v>
       </c>
@@ -3126,7 +3126,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>5</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>5</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>5</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>5</v>
       </c>
@@ -3194,7 +3194,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>5</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>5</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -3262,7 +3262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>5</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>5</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>5</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>5</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>5</v>
       </c>
@@ -3364,7 +3364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>5</v>
       </c>
@@ -3381,7 +3381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>5</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>5</v>
       </c>
@@ -3415,7 +3415,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>5</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +3449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>5</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>5</v>
       </c>
@@ -3483,7 +3483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>5</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>5</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>5</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>5</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>5</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>5</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>5</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>5</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>5</v>
       </c>
@@ -3636,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>5</v>
       </c>
@@ -3653,7 +3653,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>5</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>5</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>5</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>5</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>5</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>5</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>5</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>5</v>
       </c>
@@ -3789,7 +3789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>5</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>5</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>5</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>5</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>5</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>5</v>
       </c>
@@ -3891,7 +3891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>5</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>5</v>
       </c>
@@ -3925,7 +3925,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>5</v>
       </c>
@@ -3942,7 +3942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>5</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>5</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>5</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>5</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>5</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>5</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>5</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>5</v>
       </c>
@@ -4078,7 +4078,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>5</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>5</v>
       </c>
@@ -4112,7 +4112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>5</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>5</v>
       </c>
@@ -4146,7 +4146,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>5</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>5</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>5</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>5</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>5</v>
       </c>
@@ -4231,7 +4231,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>5</v>
       </c>
@@ -4248,7 +4248,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>5</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>5</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>5</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>5</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>5</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>5</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>5</v>
       </c>
@@ -4384,7 +4384,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>5</v>
       </c>
@@ -4401,7 +4401,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>5</v>
       </c>
@@ -4418,7 +4418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>5</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>5</v>
       </c>
@@ -4452,7 +4452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>5</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>5</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>5</v>
       </c>
@@ -4503,7 +4503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>5</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>5</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>5</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>5</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>5</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>5</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>5</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>5</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>5</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>5</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>5</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>5</v>
       </c>
@@ -4741,7 +4741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>5</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>5</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>5</v>
       </c>
@@ -4792,7 +4792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>5</v>
       </c>
@@ -4809,7 +4809,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>5</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>5</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>5</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>5</v>
       </c>
@@ -4877,7 +4877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>5</v>
       </c>
@@ -4894,7 +4894,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>5</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>5</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>5</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>5</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>5</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>5</v>
       </c>
@@ -4996,7 +4996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>5</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>5</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>5</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>5</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>5</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>5</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>5</v>
       </c>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>5</v>
       </c>
@@ -5132,7 +5132,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>5</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>5</v>
       </c>
@@ -5166,7 +5166,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>5</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>5</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>5</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>5</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>5</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>5</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>5</v>
       </c>
@@ -5285,7 +5285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>5</v>
       </c>
@@ -5302,7 +5302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>5</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>5</v>
       </c>
@@ -5336,7 +5336,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>5</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>5</v>
       </c>
@@ -5370,7 +5370,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>5</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>5</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>5</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>5</v>
       </c>
@@ -5438,7 +5438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>5</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>5</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>5</v>
       </c>
@@ -5489,7 +5489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>5</v>
       </c>
@@ -5506,7 +5506,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>5</v>
       </c>
@@ -5523,7 +5523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>5</v>
       </c>
@@ -5557,7 +5557,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>5</v>
       </c>
@@ -5574,7 +5574,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>5</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>5</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>5</v>
       </c>
@@ -5625,7 +5625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>5</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>5</v>
       </c>
@@ -5659,7 +5659,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>5</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>5</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>5</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>5</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>5</v>
       </c>
@@ -5744,7 +5744,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>5</v>
       </c>
@@ -5761,7 +5761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>5</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>5</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>5</v>
       </c>
@@ -5812,7 +5812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>5</v>
       </c>
@@ -5829,7 +5829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>5</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>5</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>5</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>5</v>
       </c>
@@ -5897,7 +5897,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>5</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>5</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>5</v>
       </c>
@@ -5948,7 +5948,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>5</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>5</v>
       </c>
@@ -5982,7 +5982,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>5</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>5</v>
       </c>
@@ -6016,7 +6016,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>5</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>5</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>5</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>5</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>5</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>5</v>
       </c>
@@ -6118,7 +6118,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>5</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>5</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>5</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>5</v>
       </c>
@@ -6186,7 +6186,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>5</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>5</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>5</v>
       </c>
@@ -6237,7 +6237,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>5</v>
       </c>
@@ -6254,7 +6254,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>5</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>5</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>5</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>5</v>
       </c>
@@ -6322,7 +6322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>5</v>
       </c>
@@ -6339,7 +6339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>5</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>5</v>
       </c>
@@ -6373,7 +6373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>5</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>5</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>5</v>
       </c>
@@ -6424,7 +6424,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>5</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>5</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>5</v>
       </c>
@@ -6492,7 +6492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>5</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>5</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>5</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>5</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>5</v>
       </c>
@@ -6577,7 +6577,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>5</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>5</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>5</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>5</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>5</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>5</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>5</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>5</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>5</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>5</v>
       </c>
@@ -6747,7 +6747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>5</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>5</v>
       </c>
@@ -6781,7 +6781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>5</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>5</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>5</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>5</v>
       </c>
@@ -6866,7 +6866,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>5</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>5</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>5</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>5</v>
       </c>
@@ -6934,7 +6934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>5</v>
       </c>
@@ -6951,7 +6951,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>5</v>
       </c>
@@ -6968,7 +6968,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>5</v>
       </c>
@@ -6985,7 +6985,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>5</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>5</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>5</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>5</v>
       </c>
@@ -7053,7 +7053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>5</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>5</v>
       </c>
@@ -7087,7 +7087,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>5</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>5</v>
       </c>
@@ -7121,7 +7121,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>5</v>
       </c>
@@ -7138,7 +7138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>5</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>5</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>5</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>5</v>
       </c>
@@ -7206,7 +7206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>5</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>5</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>5</v>
       </c>
@@ -7257,7 +7257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>5</v>
       </c>
@@ -7274,7 +7274,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>5</v>
       </c>
@@ -7291,7 +7291,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>5</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>5</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>5</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>5</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>5</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>5</v>
       </c>
@@ -7393,7 +7393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>5</v>
       </c>
@@ -7410,7 +7410,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>5</v>
       </c>
@@ -7427,7 +7427,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>5</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>5</v>
       </c>
@@ -7461,7 +7461,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>5</v>
       </c>
@@ -7478,7 +7478,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>5</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>5</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>5</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>5</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>5</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>5</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>5</v>
       </c>
@@ -7597,7 +7597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>5</v>
       </c>
@@ -7614,7 +7614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>5</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>5</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>5</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>5</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>5</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>5</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>5</v>
       </c>
@@ -7733,7 +7733,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>5</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>5</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>5</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>5</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>5</v>
       </c>
@@ -7818,7 +7818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>5</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>5</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>5</v>
       </c>
@@ -7869,7 +7869,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>5</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>5</v>
       </c>
@@ -7903,7 +7903,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>5</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>5</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>5</v>
       </c>
@@ -7954,7 +7954,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>5</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>5</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>5</v>
       </c>
@@ -8005,7 +8005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>5</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>5</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>5</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>5</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>5</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>5</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>5</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>5</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>5</v>
       </c>
@@ -8158,7 +8158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>5</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>5</v>
       </c>
@@ -8192,7 +8192,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>5</v>
       </c>
@@ -8209,7 +8209,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>5</v>
       </c>
@@ -8226,7 +8226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>5</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>5</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>5</v>
       </c>
@@ -8277,7 +8277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>5</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>5</v>
       </c>
@@ -8311,7 +8311,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>5</v>
       </c>
@@ -8328,7 +8328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>5</v>
       </c>
@@ -8345,7 +8345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>5</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>5</v>
       </c>
@@ -8379,7 +8379,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>5</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>5</v>
       </c>
@@ -8413,7 +8413,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>5</v>
       </c>
@@ -8430,7 +8430,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>5</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>5</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>5</v>
       </c>
@@ -8481,7 +8481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>5</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>5</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>5</v>
       </c>
@@ -8532,7 +8532,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>5</v>
       </c>
@@ -8549,7 +8549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>5</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>5</v>
       </c>
@@ -8583,7 +8583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>5</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>5</v>
       </c>
@@ -8617,7 +8617,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>5</v>
       </c>
@@ -8634,7 +8634,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>5</v>
       </c>
@@ -8651,7 +8651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>5</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>5</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>5</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>5</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>5</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>5</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>5</v>
       </c>
@@ -8770,7 +8770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>5</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>5</v>
       </c>
@@ -8804,7 +8804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>5</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>5</v>
       </c>
@@ -8838,7 +8838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>5</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>5</v>
       </c>
@@ -8872,7 +8872,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>5</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>5</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>5</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>5</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>5</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>5</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>5</v>
       </c>
@@ -8991,7 +8991,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>5</v>
       </c>
@@ -9008,7 +9008,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>5</v>
       </c>
@@ -9025,7 +9025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>5</v>
       </c>
@@ -9042,7 +9042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>5</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>5</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>5</v>
       </c>
@@ -9093,7 +9093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>5</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>5</v>
       </c>
@@ -9127,7 +9127,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>5</v>
       </c>
@@ -9144,7 +9144,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>5</v>
       </c>
@@ -9161,7 +9161,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>5</v>
       </c>
@@ -9178,7 +9178,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>5</v>
       </c>
@@ -9195,7 +9195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>5</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>5</v>
       </c>
@@ -9229,7 +9229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>5</v>
       </c>
@@ -9246,7 +9246,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>5</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>5</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>5</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>5</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>5</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>5</v>
       </c>
@@ -9348,7 +9348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>5</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>5</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>5</v>
       </c>
@@ -9399,7 +9399,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>5</v>
       </c>
@@ -9416,7 +9416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>5</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>5</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>5</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>5</v>
       </c>
@@ -9484,7 +9484,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>5</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>5</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>5</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>5</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>5</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>5</v>
       </c>
@@ -9586,7 +9586,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>5</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>5</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>5</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>5</v>
       </c>
@@ -9654,7 +9654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>5</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>5</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>5</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>5</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>5</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>5</v>
       </c>
@@ -9756,7 +9756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>5</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>5</v>
       </c>
@@ -9790,7 +9790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>5</v>
       </c>
@@ -9807,7 +9807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>5</v>
       </c>
@@ -9824,7 +9824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>5</v>
       </c>
@@ -9841,7 +9841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>5</v>
       </c>
@@ -9858,7 +9858,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>5</v>
       </c>
@@ -9875,7 +9875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>5</v>
       </c>
@@ -9892,7 +9892,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>5</v>
       </c>
@@ -9909,7 +9909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>5</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>5</v>
       </c>
@@ -9943,7 +9943,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>5</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>5</v>
       </c>
@@ -9977,7 +9977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>5</v>
       </c>
@@ -9994,7 +9994,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>5</v>
       </c>
@@ -10011,7 +10011,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>5</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>5</v>
       </c>
@@ -10045,7 +10045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>5</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>5</v>
       </c>
@@ -10079,7 +10079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>5</v>
       </c>
@@ -10096,7 +10096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>5</v>
       </c>
@@ -10113,7 +10113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>5</v>
       </c>
@@ -10130,7 +10130,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>5</v>
       </c>
@@ -10147,7 +10147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>5</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>5</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>5</v>
       </c>
@@ -10198,7 +10198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>5</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>5</v>
       </c>
@@ -10232,7 +10232,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>5</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>5</v>
       </c>
@@ -10266,7 +10266,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>5</v>
       </c>
@@ -10283,7 +10283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>5</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>5</v>
       </c>
@@ -10317,7 +10317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>5</v>
       </c>
@@ -10334,7 +10334,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>5</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>5</v>
       </c>
@@ -10368,7 +10368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>5</v>
       </c>
@@ -10385,7 +10385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>5</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>5</v>
       </c>
@@ -10419,7 +10419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>5</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>5</v>
       </c>
@@ -10453,7 +10453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>5</v>
       </c>
@@ -10470,7 +10470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>5</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>5</v>
       </c>
@@ -10504,7 +10504,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>5</v>
       </c>
@@ -10521,7 +10521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>5</v>
       </c>
@@ -10538,7 +10538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>5</v>
       </c>
@@ -10555,7 +10555,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>5</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>5</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>5</v>
       </c>
@@ -10606,7 +10606,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>5</v>
       </c>
@@ -10623,7 +10623,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>5</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>5</v>
       </c>
@@ -10657,7 +10657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>5</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>5</v>
       </c>
@@ -10691,7 +10691,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>5</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>5</v>
       </c>
@@ -10725,7 +10725,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>5</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>5</v>
       </c>
@@ -10759,7 +10759,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>5</v>
       </c>
@@ -10776,7 +10776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>5</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>5</v>
       </c>
@@ -10810,7 +10810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>5</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>5</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>5</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>5</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>5</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>5</v>
       </c>
@@ -10912,7 +10912,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>5</v>
       </c>
@@ -10929,7 +10929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>5</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>5</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>5</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>5</v>
       </c>
@@ -10997,7 +10997,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>5</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>5</v>
       </c>
@@ -11031,7 +11031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>5</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>5</v>
       </c>
@@ -11065,7 +11065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>5</v>
       </c>
@@ -11082,7 +11082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>5</v>
       </c>
@@ -11099,7 +11099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>5</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>5</v>
       </c>
@@ -11133,7 +11133,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>5</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>5</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>5</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>5</v>
       </c>
@@ -11201,7 +11201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>5</v>
       </c>
@@ -11218,7 +11218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>5</v>
       </c>
@@ -11235,7 +11235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>5</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>5</v>
       </c>
@@ -11269,7 +11269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>5</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>5</v>
       </c>
@@ -11303,7 +11303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>5</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>5</v>
       </c>
@@ -11337,7 +11337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>5</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>5</v>
       </c>
@@ -11371,7 +11371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>5</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>5</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>5</v>
       </c>
@@ -11422,7 +11422,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>5</v>
       </c>
@@ -11439,7 +11439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>5</v>
       </c>
@@ -11456,7 +11456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>5</v>
       </c>
@@ -11473,7 +11473,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>5</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>5</v>
       </c>
@@ -11507,7 +11507,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>5</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>5</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>5</v>
       </c>
@@ -11558,7 +11558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>5</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>5</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>5</v>
       </c>
@@ -11609,7 +11609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>5</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>5</v>
       </c>
@@ -11643,7 +11643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>5</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>5</v>
       </c>
@@ -11677,7 +11677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>5</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>5</v>
       </c>
@@ -11711,7 +11711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>5</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>5</v>
       </c>
@@ -11745,7 +11745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>5</v>
       </c>
@@ -11762,7 +11762,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>5</v>
       </c>
@@ -11779,7 +11779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>5</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>5</v>
       </c>
@@ -11813,7 +11813,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>5</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>5</v>
       </c>
@@ -11847,7 +11847,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>5</v>
       </c>
@@ -11864,7 +11864,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>5</v>
       </c>
@@ -11881,7 +11881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>5</v>
       </c>
@@ -11898,7 +11898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>5</v>
       </c>
@@ -11915,7 +11915,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>5</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>5</v>
       </c>
@@ -11949,7 +11949,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>5</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>5</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>5</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>5</v>
       </c>
@@ -12017,7 +12017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>5</v>
       </c>
@@ -12034,7 +12034,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>5</v>
       </c>
@@ -12051,7 +12051,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>5</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>5</v>
       </c>
@@ -12085,7 +12085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>5</v>
       </c>
@@ -12102,7 +12102,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>5</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>5</v>
       </c>
@@ -12136,7 +12136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>5</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>5</v>
       </c>
@@ -12170,7 +12170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>5</v>
       </c>
@@ -12187,7 +12187,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>5</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>5</v>
       </c>
@@ -12221,7 +12221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>5</v>
       </c>
@@ -12238,7 +12238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>5</v>
       </c>
@@ -12255,7 +12255,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>5</v>
       </c>
@@ -12272,7 +12272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>5</v>
       </c>
@@ -12289,7 +12289,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>5</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>5</v>
       </c>
@@ -12323,7 +12323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>5</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>5</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>5</v>
       </c>
@@ -12374,7 +12374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>5</v>
       </c>
@@ -12391,7 +12391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>5</v>
       </c>
@@ -12408,7 +12408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>5</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>5</v>
       </c>
@@ -12442,7 +12442,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>5</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>5</v>
       </c>
@@ -12476,7 +12476,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>5</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>5</v>
       </c>
@@ -12510,7 +12510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>5</v>
       </c>
@@ -12527,7 +12527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>5</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>5</v>
       </c>
@@ -12561,7 +12561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>5</v>
       </c>
@@ -12578,7 +12578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>5</v>
       </c>
@@ -12595,7 +12595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>5</v>
       </c>
@@ -12612,7 +12612,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>5</v>
       </c>
@@ -12629,7 +12629,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>5</v>
       </c>
@@ -12646,7 +12646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>5</v>
       </c>
@@ -12663,7 +12663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>5</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>5</v>
       </c>
@@ -12697,7 +12697,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>5</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>5</v>
       </c>
@@ -12731,7 +12731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>5</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>5</v>
       </c>
@@ -12765,7 +12765,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>5</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>5</v>
       </c>
@@ -12799,7 +12799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>5</v>
       </c>
@@ -12816,7 +12816,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>5</v>
       </c>
@@ -12833,7 +12833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>5</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>5</v>
       </c>
@@ -12884,7 +12884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>5</v>
       </c>
@@ -12901,7 +12901,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>5</v>
       </c>
@@ -12918,7 +12918,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>5</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>5</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>5</v>
       </c>
@@ -12969,7 +12969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>5</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>5</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>5</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>5</v>
       </c>
@@ -13037,7 +13037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>5</v>
       </c>
@@ -13054,7 +13054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>5</v>
       </c>
@@ -13071,7 +13071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>5</v>
       </c>
@@ -13088,7 +13088,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>5</v>
       </c>
@@ -13105,7 +13105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>5</v>
       </c>
@@ -13122,7 +13122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>5</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>5</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>5</v>
       </c>
@@ -13173,7 +13173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>5</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
         <v>5</v>
       </c>
@@ -13207,7 +13207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
         <v>5</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A755" t="s">
         <v>5</v>
       </c>
@@ -13241,7 +13241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A756" t="s">
         <v>5</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A757" t="s">
         <v>5</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A758" t="s">
         <v>5</v>
       </c>
@@ -13292,7 +13292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A759" t="s">
         <v>5</v>
       </c>
@@ -13309,7 +13309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A760" t="s">
         <v>5</v>
       </c>
@@ -13326,7 +13326,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A761" t="s">
         <v>5</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A762" t="s">
         <v>5</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A763" t="s">
         <v>5</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A764" t="s">
         <v>5</v>
       </c>
@@ -13394,7 +13394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A765" t="s">
         <v>5</v>
       </c>
@@ -13411,7 +13411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A766" t="s">
         <v>5</v>
       </c>
@@ -13428,7 +13428,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A767" t="s">
         <v>5</v>
       </c>
@@ -13445,7 +13445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A768" t="s">
         <v>5</v>
       </c>
@@ -13462,7 +13462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A769" t="s">
         <v>5</v>
       </c>
@@ -13479,7 +13479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A770" t="s">
         <v>5</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A771" t="s">
         <v>5</v>
       </c>
@@ -13513,7 +13513,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A772" t="s">
         <v>5</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A773" t="s">
         <v>5</v>
       </c>
@@ -13547,7 +13547,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A774" t="s">
         <v>5</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A775" t="s">
         <v>5</v>
       </c>
@@ -13581,7 +13581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A776" t="s">
         <v>5</v>
       </c>
@@ -13598,7 +13598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A777" t="s">
         <v>5</v>
       </c>
@@ -13615,7 +13615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A778" t="s">
         <v>5</v>
       </c>
@@ -13632,7 +13632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A779" t="s">
         <v>5</v>
       </c>
@@ -13649,7 +13649,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A780" t="s">
         <v>5</v>
       </c>
@@ -13666,7 +13666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A781" t="s">
         <v>5</v>
       </c>
@@ -13683,7 +13683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A782" t="s">
         <v>5</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A783" t="s">
         <v>5</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A784" t="s">
         <v>5</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A785" t="s">
         <v>5</v>
       </c>
@@ -13751,7 +13751,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A786" t="s">
         <v>5</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A787" t="s">
         <v>5</v>
       </c>
@@ -13785,7 +13785,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A788" t="s">
         <v>5</v>
       </c>
@@ -13802,7 +13802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A789" t="s">
         <v>5</v>
       </c>
@@ -13819,7 +13819,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A790" t="s">
         <v>5</v>
       </c>
@@ -13836,7 +13836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A791" t="s">
         <v>5</v>
       </c>
@@ -13853,7 +13853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A792" t="s">
         <v>5</v>
       </c>
@@ -13870,7 +13870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A793" t="s">
         <v>5</v>
       </c>
@@ -13887,7 +13887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A794" t="s">
         <v>5</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A795" t="s">
         <v>5</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A796" t="s">
         <v>5</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A797" t="s">
         <v>5</v>
       </c>
@@ -13955,7 +13955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A798" t="s">
         <v>5</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A799" t="s">
         <v>5</v>
       </c>
@@ -13989,7 +13989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A800" t="s">
         <v>5</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A801" t="s">
         <v>5</v>
       </c>
@@ -14023,7 +14023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A802" t="s">
         <v>5</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A803" t="s">
         <v>5</v>
       </c>
@@ -14057,7 +14057,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A804" t="s">
         <v>5</v>
       </c>
@@ -14074,7 +14074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A805" t="s">
         <v>5</v>
       </c>
@@ -14091,7 +14091,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A806" t="s">
         <v>5</v>
       </c>
@@ -14108,7 +14108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A807" t="s">
         <v>5</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A808" t="s">
         <v>5</v>
       </c>
@@ -14142,7 +14142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A809" t="s">
         <v>5</v>
       </c>
@@ -14159,7 +14159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A810" t="s">
         <v>5</v>
       </c>
@@ -14176,7 +14176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A811" t="s">
         <v>5</v>
       </c>
@@ -14193,7 +14193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A812" t="s">
         <v>5</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A813" t="s">
         <v>5</v>
       </c>
@@ -14227,7 +14227,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A814" t="s">
         <v>5</v>
       </c>
@@ -14244,7 +14244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A815" t="s">
         <v>5</v>
       </c>
@@ -14261,7 +14261,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A816" t="s">
         <v>5</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A817" t="s">
         <v>5</v>
       </c>
@@ -14295,7 +14295,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A818" t="s">
         <v>5</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A819" t="s">
         <v>5</v>
       </c>
@@ -14329,7 +14329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A820" t="s">
         <v>5</v>
       </c>
@@ -14346,7 +14346,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A821" t="s">
         <v>5</v>
       </c>
@@ -14363,7 +14363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A822" t="s">
         <v>5</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A823" t="s">
         <v>5</v>
       </c>
@@ -14397,7 +14397,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A824" t="s">
         <v>5</v>
       </c>
@@ -14414,7 +14414,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A825" t="s">
         <v>5</v>
       </c>
@@ -14431,7 +14431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A826" t="s">
         <v>5</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A827" t="s">
         <v>5</v>
       </c>
@@ -14465,7 +14465,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A828" t="s">
         <v>5</v>
       </c>
@@ -14482,7 +14482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A829" t="s">
         <v>5</v>
       </c>
@@ -14499,7 +14499,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A830" t="s">
         <v>5</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A831" t="s">
         <v>5</v>
       </c>
@@ -14533,7 +14533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A832" t="s">
         <v>5</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A833" t="s">
         <v>5</v>
       </c>
@@ -14567,7 +14567,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A834" t="s">
         <v>5</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A835" t="s">
         <v>5</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A836" t="s">
         <v>5</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A837" t="s">
         <v>5</v>
       </c>
@@ -14635,7 +14635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A838" t="s">
         <v>5</v>
       </c>
@@ -14652,7 +14652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A839" t="s">
         <v>5</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A840" t="s">
         <v>5</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A841" t="s">
         <v>5</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A842" t="s">
         <v>5</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A843" t="s">
         <v>5</v>
       </c>
@@ -14737,7 +14737,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A844" t="s">
         <v>5</v>
       </c>
@@ -14754,7 +14754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A845" t="s">
         <v>5</v>
       </c>
@@ -14771,7 +14771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A846" t="s">
         <v>5</v>
       </c>
@@ -14788,7 +14788,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A847" t="s">
         <v>5</v>
       </c>
@@ -14805,7 +14805,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A848" t="s">
         <v>5</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A849" t="s">
         <v>5</v>
       </c>
@@ -14839,7 +14839,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A850" t="s">
         <v>5</v>
       </c>
@@ -14856,7 +14856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A851" t="s">
         <v>5</v>
       </c>
@@ -14873,7 +14873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A852" t="s">
         <v>5</v>
       </c>
@@ -14890,7 +14890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A853" t="s">
         <v>5</v>
       </c>
@@ -14907,7 +14907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A854" t="s">
         <v>5</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A855" t="s">
         <v>5</v>
       </c>
@@ -14941,7 +14941,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A856" t="s">
         <v>5</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A857" t="s">
         <v>5</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A858" t="s">
         <v>5</v>
       </c>
@@ -14992,7 +14992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A859" t="s">
         <v>5</v>
       </c>
@@ -15009,7 +15009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A860" t="s">
         <v>5</v>
       </c>
@@ -15026,7 +15026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A861" t="s">
         <v>5</v>
       </c>
@@ -15043,7 +15043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A862" t="s">
         <v>5</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A863" t="s">
         <v>5</v>
       </c>
@@ -15077,7 +15077,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A864" t="s">
         <v>5</v>
       </c>
@@ -15094,7 +15094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A865" t="s">
         <v>5</v>
       </c>
@@ -15111,7 +15111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A866" t="s">
         <v>5</v>
       </c>
@@ -15128,7 +15128,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A867" t="s">
         <v>5</v>
       </c>
@@ -15145,7 +15145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A868" t="s">
         <v>5</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A869" t="s">
         <v>5</v>
       </c>
@@ -15179,7 +15179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A870" t="s">
         <v>5</v>
       </c>
@@ -15196,7 +15196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A871" t="s">
         <v>5</v>
       </c>
@@ -15213,7 +15213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A872" t="s">
         <v>5</v>
       </c>
@@ -15230,7 +15230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A873" t="s">
         <v>5</v>
       </c>
@@ -15247,7 +15247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A874" t="s">
         <v>5</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A875" t="s">
         <v>5</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A876" t="s">
         <v>5</v>
       </c>
@@ -15298,7 +15298,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A877" t="s">
         <v>5</v>
       </c>
@@ -15315,7 +15315,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A878" t="s">
         <v>5</v>
       </c>
@@ -15332,7 +15332,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A879" t="s">
         <v>5</v>
       </c>
@@ -15349,7 +15349,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A880" t="s">
         <v>5</v>
       </c>
@@ -15366,7 +15366,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A881" t="s">
         <v>5</v>
       </c>
@@ -15383,7 +15383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A882" t="s">
         <v>5</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A883" t="s">
         <v>5</v>
       </c>
@@ -15417,7 +15417,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A884" t="s">
         <v>5</v>
       </c>
@@ -15434,7 +15434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A885" t="s">
         <v>5</v>
       </c>
@@ -15451,7 +15451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A886" t="s">
         <v>5</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="887" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A887" t="s">
         <v>5</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="888" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A888" t="s">
         <v>5</v>
       </c>
@@ -15502,7 +15502,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="889" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A889" t="s">
         <v>5</v>
       </c>
@@ -15519,7 +15519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="890" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A890" t="s">
         <v>5</v>
       </c>
@@ -15536,7 +15536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="891" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A891" t="s">
         <v>5</v>
       </c>
@@ -15553,7 +15553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="892" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A892" t="s">
         <v>5</v>
       </c>
@@ -15570,7 +15570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="893" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A893" t="s">
         <v>5</v>
       </c>
@@ -15587,7 +15587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="894" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A894" t="s">
         <v>5</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="895" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A895" t="s">
         <v>5</v>
       </c>
@@ -15621,7 +15621,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="896" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A896" t="s">
         <v>5</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="897" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A897" t="s">
         <v>5</v>
       </c>
@@ -15655,7 +15655,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="898" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A898" t="s">
         <v>5</v>
       </c>
@@ -15672,7 +15672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="899" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A899" t="s">
         <v>5</v>
       </c>
@@ -15689,7 +15689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="900" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A900" t="s">
         <v>5</v>
       </c>
@@ -15706,7 +15706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="901" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A901" t="s">
         <v>5</v>
       </c>
@@ -15723,7 +15723,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="902" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A902" t="s">
         <v>5</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="903" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A903" t="s">
         <v>5</v>
       </c>
@@ -15757,7 +15757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="904" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A904" t="s">
         <v>5</v>
       </c>
@@ -15774,7 +15774,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="905" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A905" t="s">
         <v>5</v>
       </c>
@@ -15791,7 +15791,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="906" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A906" t="s">
         <v>5</v>
       </c>
@@ -15808,7 +15808,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="907" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A907" t="s">
         <v>5</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="908" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A908" t="s">
         <v>5</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="909" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A909" t="s">
         <v>5</v>
       </c>
@@ -15859,7 +15859,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="910" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A910" t="s">
         <v>5</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="911" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A911" t="s">
         <v>5</v>
       </c>
@@ -15893,7 +15893,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="912" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A912" t="s">
         <v>5</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="913" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A913" t="s">
         <v>5</v>
       </c>
@@ -15927,7 +15927,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="914" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A914" t="s">
         <v>5</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="915" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A915" t="s">
         <v>5</v>
       </c>
@@ -15961,7 +15961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="916" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A916" t="s">
         <v>5</v>
       </c>
@@ -15978,7 +15978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="917" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A917" t="s">
         <v>5</v>
       </c>
@@ -15995,7 +15995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="918" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A918" t="s">
         <v>5</v>
       </c>
@@ -16012,7 +16012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="919" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A919" t="s">
         <v>5</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="920" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A920" t="s">
         <v>5</v>
       </c>
@@ -16046,7 +16046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="921" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A921" t="s">
         <v>5</v>
       </c>
@@ -16063,7 +16063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A922" t="s">
         <v>5</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="923" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A923" t="s">
         <v>5</v>
       </c>
@@ -16097,7 +16097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="924" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A924" t="s">
         <v>5</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="925" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A925" t="s">
         <v>5</v>
       </c>
@@ -16131,7 +16131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="926" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A926" t="s">
         <v>5</v>
       </c>
@@ -16148,7 +16148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="927" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A927" t="s">
         <v>5</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="928" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A928" t="s">
         <v>5</v>
       </c>
@@ -16182,7 +16182,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="929" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A929" t="s">
         <v>5</v>
       </c>
@@ -16199,7 +16199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="930" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A930" t="s">
         <v>5</v>
       </c>
@@ -16216,7 +16216,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="931" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A931" t="s">
         <v>5</v>
       </c>
@@ -16233,7 +16233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="932" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A932" t="s">
         <v>5</v>
       </c>
@@ -16250,7 +16250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="933" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A933" t="s">
         <v>5</v>
       </c>
@@ -16267,7 +16267,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="934" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A934" t="s">
         <v>5</v>
       </c>
@@ -16284,7 +16284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="935" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A935" t="s">
         <v>5</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="936" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A936" t="s">
         <v>5</v>
       </c>
@@ -16318,7 +16318,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="937" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A937" t="s">
         <v>5</v>
       </c>
@@ -16335,7 +16335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="938" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A938" t="s">
         <v>5</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="939" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A939" t="s">
         <v>5</v>
       </c>
@@ -16369,7 +16369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="940" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A940" t="s">
         <v>5</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="941" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A941" t="s">
         <v>5</v>
       </c>
@@ -16403,7 +16403,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="942" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A942" t="s">
         <v>5</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="943" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A943" t="s">
         <v>5</v>
       </c>
@@ -16437,7 +16437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="944" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A944" t="s">
         <v>5</v>
       </c>
@@ -16454,7 +16454,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="945" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A945" t="s">
         <v>5</v>
       </c>
@@ -16471,7 +16471,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="946" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A946" t="s">
         <v>5</v>
       </c>
@@ -16488,7 +16488,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="947" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A947" t="s">
         <v>5</v>
       </c>
@@ -16505,7 +16505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="948" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A948" t="s">
         <v>5</v>
       </c>
@@ -16522,7 +16522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="949" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A949" t="s">
         <v>5</v>
       </c>
@@ -16539,7 +16539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="950" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A950" t="s">
         <v>5</v>
       </c>
@@ -16556,7 +16556,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="951" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A951" t="s">
         <v>5</v>
       </c>
@@ -16573,7 +16573,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="952" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A952" t="s">
         <v>5</v>
       </c>
@@ -16590,7 +16590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="953" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A953" t="s">
         <v>5</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="954" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A954" t="s">
         <v>5</v>
       </c>
@@ -16624,7 +16624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="955" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A955" t="s">
         <v>5</v>
       </c>
@@ -16641,7 +16641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="956" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A956" t="s">
         <v>5</v>
       </c>
@@ -16658,7 +16658,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="957" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A957" t="s">
         <v>5</v>
       </c>
@@ -16675,7 +16675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="958" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A958" t="s">
         <v>5</v>
       </c>
@@ -16692,7 +16692,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="959" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A959" t="s">
         <v>5</v>
       </c>
@@ -16709,7 +16709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="960" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A960" t="s">
         <v>5</v>
       </c>
@@ -16726,7 +16726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="961" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A961" t="s">
         <v>5</v>
       </c>
@@ -16743,7 +16743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="962" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A962" t="s">
         <v>5</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="963" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A963" t="s">
         <v>5</v>
       </c>
@@ -16777,7 +16777,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="964" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A964" t="s">
         <v>5</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="965" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A965" t="s">
         <v>5</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="966" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A966" t="s">
         <v>5</v>
       </c>
@@ -16828,7 +16828,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="967" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A967" t="s">
         <v>5</v>
       </c>
@@ -16845,7 +16845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="968" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A968" t="s">
         <v>5</v>
       </c>
@@ -16862,7 +16862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="969" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A969" t="s">
         <v>5</v>
       </c>
@@ -16879,7 +16879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="970" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A970" t="s">
         <v>5</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="971" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A971" t="s">
         <v>5</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="972" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A972" t="s">
         <v>5</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="973" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A973" t="s">
         <v>5</v>
       </c>
@@ -16947,7 +16947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="974" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A974" t="s">
         <v>5</v>
       </c>
@@ -16964,7 +16964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="975" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A975" t="s">
         <v>5</v>
       </c>
@@ -16981,7 +16981,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="976" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A976" t="s">
         <v>5</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A977" t="s">
         <v>5</v>
       </c>
@@ -17015,7 +17015,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="978" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A978" t="s">
         <v>5</v>
       </c>
@@ -17032,7 +17032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="979" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A979" t="s">
         <v>5</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="980" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A980" t="s">
         <v>5</v>
       </c>
@@ -17066,7 +17066,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="981" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A981" t="s">
         <v>5</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="982" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A982" t="s">
         <v>5</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="983" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A983" t="s">
         <v>5</v>
       </c>
@@ -17117,7 +17117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="984" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A984" t="s">
         <v>5</v>
       </c>
@@ -17134,7 +17134,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="985" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A985" t="s">
         <v>5</v>
       </c>
@@ -17151,7 +17151,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="986" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A986" t="s">
         <v>5</v>
       </c>
@@ -17168,7 +17168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="987" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A987" t="s">
         <v>5</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="988" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A988" t="s">
         <v>5</v>
       </c>
@@ -17202,7 +17202,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="989" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A989" t="s">
         <v>5</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="990" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A990" t="s">
         <v>5</v>
       </c>
@@ -17236,7 +17236,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="991" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A991" t="s">
         <v>5</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="992" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A992" t="s">
         <v>5</v>
       </c>
@@ -17270,7 +17270,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="993" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A993" t="s">
         <v>5</v>
       </c>
@@ -17287,7 +17287,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="994" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A994" t="s">
         <v>5</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="995" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A995" t="s">
         <v>5</v>
       </c>
@@ -17321,7 +17321,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="996" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A996" t="s">
         <v>5</v>
       </c>
@@ -17338,7 +17338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="997" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A997" t="s">
         <v>5</v>
       </c>
@@ -17355,7 +17355,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="998" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A998" t="s">
         <v>5</v>
       </c>
@@ -17372,7 +17372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="999" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A999" t="s">
         <v>5</v>
       </c>
@@ -17389,7 +17389,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1000" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1000" t="s">
         <v>5</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1001" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1001" t="s">
         <v>5</v>
       </c>
@@ -17423,7 +17423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1002" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1002" t="s">
         <v>5</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1003" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1003" t="s">
         <v>5</v>
       </c>
@@ -17457,7 +17457,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1004" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1004" t="s">
         <v>5</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1005" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1005" t="s">
         <v>5</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1006" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1006" t="s">
         <v>5</v>
       </c>
@@ -17508,7 +17508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1007" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1007" t="s">
         <v>5</v>
       </c>
@@ -17525,7 +17525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1008" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1008" t="s">
         <v>5</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1009" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1009" t="s">
         <v>5</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1010" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1010" t="s">
         <v>5</v>
       </c>
@@ -17576,7 +17576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1011" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1011" t="s">
         <v>5</v>
       </c>
@@ -17593,7 +17593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1012" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1012" t="s">
         <v>5</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1013" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1013" t="s">
         <v>5</v>
       </c>
@@ -17627,7 +17627,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1014" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1014" t="s">
         <v>5</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1015" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1015" t="s">
         <v>5</v>
       </c>
@@ -17661,7 +17661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1016" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1016" t="s">
         <v>5</v>
       </c>
@@ -17678,7 +17678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1017" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1017" t="s">
         <v>5</v>
       </c>
@@ -17695,7 +17695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1018" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1018" t="s">
         <v>5</v>
       </c>
@@ -17712,7 +17712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1019" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1019" t="s">
         <v>5</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1020" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1020" t="s">
         <v>5</v>
       </c>
@@ -17746,7 +17746,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1021" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1021" t="s">
         <v>5</v>
       </c>
@@ -17763,7 +17763,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1022" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1022" t="s">
         <v>5</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1023" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1023" t="s">
         <v>5</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1024" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1024" t="s">
         <v>5</v>
       </c>
@@ -17814,7 +17814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1025" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1025" t="s">
         <v>5</v>
       </c>
@@ -17831,7 +17831,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1026" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1026" t="s">
         <v>5</v>
       </c>
@@ -17848,7 +17848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1027" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1027" t="s">
         <v>5</v>
       </c>
@@ -17865,7 +17865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1028" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1028" t="s">
         <v>5</v>
       </c>
@@ -17882,7 +17882,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1029" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1029" t="s">
         <v>5</v>
       </c>
@@ -17899,7 +17899,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1030" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1030" t="s">
         <v>5</v>
       </c>
@@ -17916,7 +17916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1031" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1031" t="s">
         <v>5</v>
       </c>
@@ -17933,7 +17933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1032" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1032" t="s">
         <v>5</v>
       </c>
@@ -17950,7 +17950,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1033" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1033" t="s">
         <v>5</v>
       </c>
@@ -17967,7 +17967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1034" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1034" t="s">
         <v>5</v>
       </c>
@@ -17984,7 +17984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1035" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1035" t="s">
         <v>5</v>
       </c>
@@ -18001,7 +18001,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1036" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1036" t="s">
         <v>5</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1037" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1037" t="s">
         <v>5</v>
       </c>
@@ -18035,7 +18035,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1038" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1038" t="s">
         <v>5</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1039" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1039" t="s">
         <v>5</v>
       </c>
@@ -18069,7 +18069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1040" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1040" t="s">
         <v>5</v>
       </c>
@@ -18086,7 +18086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1041" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1041" t="s">
         <v>5</v>
       </c>
@@ -18103,7 +18103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1042" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1042" t="s">
         <v>5</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1043" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1043" t="s">
         <v>5</v>
       </c>
@@ -18137,7 +18137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1044" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1044" t="s">
         <v>5</v>
       </c>
@@ -18154,7 +18154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1045" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1045" t="s">
         <v>5</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1046" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1046" t="s">
         <v>5</v>
       </c>
@@ -18188,7 +18188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1047" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1047" t="s">
         <v>5</v>
       </c>
@@ -18205,7 +18205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1048" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1048" t="s">
         <v>5</v>
       </c>
@@ -18222,7 +18222,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1049" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1049" t="s">
         <v>5</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1050" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1050" t="s">
         <v>5</v>
       </c>
@@ -18256,7 +18256,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1051" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1051" t="s">
         <v>5</v>
       </c>
@@ -18273,7 +18273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1052" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1052" t="s">
         <v>5</v>
       </c>
@@ -18290,7 +18290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1053" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1053" t="s">
         <v>5</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1054" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1054" t="s">
         <v>5</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1055" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1055" t="s">
         <v>5</v>
       </c>
@@ -18341,7 +18341,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1056" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1056" t="s">
         <v>5</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1057" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1057" t="s">
         <v>5</v>
       </c>
@@ -18375,7 +18375,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1058" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1058" t="s">
         <v>5</v>
       </c>
@@ -18392,7 +18392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1059" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1059" t="s">
         <v>5</v>
       </c>
@@ -18409,7 +18409,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1060" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1060" t="s">
         <v>5</v>
       </c>
@@ -18426,7 +18426,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1061" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1061" t="s">
         <v>5</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1062" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1062" t="s">
         <v>5</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1063" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1063" t="s">
         <v>5</v>
       </c>
@@ -18477,7 +18477,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1064" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1064" t="s">
         <v>5</v>
       </c>
@@ -18494,7 +18494,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1065" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1065" t="s">
         <v>5</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1066" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1066" t="s">
         <v>5</v>
       </c>
@@ -18528,7 +18528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1067" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1067" t="s">
         <v>5</v>
       </c>
@@ -18545,7 +18545,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1068" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1068" t="s">
         <v>5</v>
       </c>
@@ -18562,7 +18562,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1069" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1069" t="s">
         <v>5</v>
       </c>
@@ -18579,7 +18579,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1070" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1070" t="s">
         <v>5</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1071" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1071" t="s">
         <v>5</v>
       </c>
@@ -18613,7 +18613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1072" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1072" t="s">
         <v>5</v>
       </c>
@@ -18630,7 +18630,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1073" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1073" t="s">
         <v>5</v>
       </c>
@@ -18647,7 +18647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1074" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1074" t="s">
         <v>5</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1075" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1075" t="s">
         <v>5</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1076" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1076" t="s">
         <v>5</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1077" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1077" t="s">
         <v>5</v>
       </c>
@@ -18715,7 +18715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1078" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1078" t="s">
         <v>5</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1079" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1079" t="s">
         <v>5</v>
       </c>
@@ -18749,7 +18749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1080" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1080" t="s">
         <v>5</v>
       </c>
@@ -18766,7 +18766,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1081" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1081" t="s">
         <v>5</v>
       </c>
@@ -18783,7 +18783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1082" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1082" t="s">
         <v>5</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1083" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1083" t="s">
         <v>5</v>
       </c>
@@ -18817,7 +18817,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1084" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1084" t="s">
         <v>5</v>
       </c>
@@ -18834,7 +18834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1085" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1085" t="s">
         <v>5</v>
       </c>

--- a/target/test-classes/miCollabTestData.xlsx
+++ b/target/test-classes/miCollabTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A48F6DED-5022-4E1E-A817-C11DEFC91564}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BBCB0-3D59-4FE5-9738-AE9CC5476C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
   </bookViews>

--- a/target/test-classes/miCollabTestData.xlsx
+++ b/target/test-classes/miCollabTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mehmet\IdeaProjects\miCollabWeb\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696BBCB0-3D59-4FE5-9738-AE9CC5476C5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6508C0A-B540-4FC5-AAA0-27B5894CBC92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8400" yWindow="5490" windowWidth="28800" windowHeight="15435" xr2:uid="{0B859B5B-27CB-184D-A670-5CE0833DF2CB}"/>
   </bookViews>
@@ -396,9 +396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17C1778E-A402-0141-99EE-0C219108867A}">
   <dimension ref="A1:E1085"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
